--- a/Autonomous Farming/Protocol.xlsx
+++ b/Autonomous Farming/Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS PC\Documents\GitHub\prototyping-team2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\Projects\Autonomous Farming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62D3695-1558-4F05-A165-085838555242}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E710DC34-EFF7-473B-AFF1-46F664A8FE8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="8325" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13236" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Arfat Kamal</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Task 1</t>
   </si>
   <si>
-    <t>SysML Diagrams</t>
-  </si>
-  <si>
     <t>Use case</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Task 2</t>
   </si>
   <si>
-    <t>Tinkercad Sim</t>
-  </si>
-  <si>
     <t>Motor</t>
   </si>
   <si>
@@ -106,6 +100,33 @@
   </si>
   <si>
     <t>State_chart</t>
+  </si>
+  <si>
+    <t>1. Run the system in simulation. 
+2. Run the code on lab presented dummy robot</t>
+  </si>
+  <si>
+    <t>1. SysML Diagrams</t>
+  </si>
+  <si>
+    <t>Task 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 3D Design. 
+2. Prepare parts for laser cut and 3D printer.
+3. Assemble all the parts.  </t>
+  </si>
+  <si>
+    <t>Design motor holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design robot sturcture </t>
+  </si>
+  <si>
+    <t>Prepare all the parts for laser</t>
+  </si>
+  <si>
+    <t>Design ultrasonic holder</t>
   </si>
 </sst>
 </file>
@@ -124,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +176,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,16 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -185,6 +209,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -501,57 +535,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA807FDD-2A6D-4008-9635-57A42367C672}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -607,190 +641,253 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>44654</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>44654</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1">
         <v>44654</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1">
         <v>44654</v>
       </c>
-      <c r="K3" t="s">
-        <v>15</v>
+      <c r="K3" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="L3" s="1">
         <v>44654</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" s="1">
         <v>44652</v>
       </c>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="1">
         <v>44654</v>
       </c>
       <c r="Q3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R3" s="1">
         <v>44653</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="K4" t="s">
-        <v>17</v>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="K4" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="L4" s="1">
         <v>44654</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" s="1">
         <v>44653</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="1">
         <v>44654</v>
       </c>
       <c r="Q4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="1">
         <v>44653</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>44661</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>44656</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1">
         <v>44661</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="5">
         <v>44658</v>
       </c>
-      <c r="K6" t="s">
-        <v>24</v>
+      <c r="K6" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="L6" s="1">
         <v>44661</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" s="5">
         <v>44658</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P6" s="1">
         <v>44661</v>
       </c>
       <c r="Q6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R6" s="5">
         <v>44658</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1">
         <v>44661</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="5">
         <v>44658</v>
       </c>
-      <c r="K7" t="s">
-        <v>25</v>
+      <c r="K7" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="L7" s="1">
         <v>44661</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7" s="5">
         <v>44658</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="K8" t="s">
-        <v>26</v>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="K8" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N8" s="5">
         <v>44658</v>
       </c>
     </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44682</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44682</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1">
+        <v>44665</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1">
+        <v>44665</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="1">
+        <v>44682</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="1">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="K10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="1">
+        <v>44682</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
